--- a/medicine/Enfance/Béatrice_Fontanel/Béatrice_Fontanel.xlsx
+++ b/medicine/Enfance/Béatrice_Fontanel/Béatrice_Fontanel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B%C3%A9atrice_Fontanel</t>
+          <t>Béatrice_Fontanel</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Béatrice Fontanel, née à Casablanca le 11 août 1957, est à la fois iconographe et auteure de nombreux livres illustrés consacrés à la vie quotidienne, de plusieurs ouvrages de fiction et de recueils de poèmes.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B%C3%A9atrice_Fontanel</t>
+          <t>Béatrice_Fontanel</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après des études de lettres, et une maîtrise sur l'écrivain argentin Julio Cortázar, elle devient journaliste à Bayard Presse.
-En 2009, elle obtient le prix du Premier roman du Doubs  et le prix Jean d'Heurs du roman historique puis, en 2010, le prix Claude-Farrère de l'écrivain combattant, pour L’Homme barbelé[1]. Ce roman historique, basé sur son aïeul le capitaine Ferdinand Bouvier et qui met en évidence « comment l'histoire s'écrit, s'oublie et se réécrit, quelles traces se déposent dans les mémoires au long de ces processus », est salué par la presse pour sa « remarquable justesse[2] ».
-Les thèmes de prédilection que l'auteure explore dans son travail artistique sont l'histoire, la nature, les arts et la vie quotidienne[3].
+En 2009, elle obtient le prix du Premier roman du Doubs  et le prix Jean d'Heurs du roman historique puis, en 2010, le prix Claude-Farrère de l'écrivain combattant, pour L’Homme barbelé. Ce roman historique, basé sur son aïeul le capitaine Ferdinand Bouvier et qui met en évidence « comment l'histoire s'écrit, s'oublie et se réécrit, quelles traces se déposent dans les mémoires au long de ces processus », est salué par la presse pour sa « remarquable justesse ».
+Les thèmes de prédilection que l'auteure explore dans son travail artistique sont l'histoire, la nature, les arts et la vie quotidienne.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B%C3%A9atrice_Fontanel</t>
+          <t>Béatrice_Fontanel</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Béatrice Fontanel, Le Travail des sculpteurs, Gallimard, 1993.
 Béatrice Fontanel, L’Épopée des bébés, La Martinière, 1999.
@@ -598,7 +614,7 @@
 Béatrice Fontanel, First steps at the Louvre, Édition en anglais, Palette, 2009.
 Béatrice Fontanel, Gustave Taloche, roi de la bagarre, Actes Sud Junior, 2009.
 Béatrice Fontanel et Marc Boutavant, Bogueugueu va à Londres, Gallimard Jeunesse, 2009.
-Béatrice Fontanel, L’Homme barbelé, Grasset, 2009prix Claude-Farrère de l'écrivain combattant, en 2010[4].
+Béatrice Fontanel, L’Homme barbelé, Grasset, 2009prix Claude-Farrère de l'écrivain combattant, en 2010.
 Béatrice Fontanel et Daniel Wolfromm, Petite histoire du préservatif, Stock, 2009.
 Béatrice Fontanel et Claire D'Harcourt, Bébés du monde, La Martinière, 2009.
 Béatrice Fontanel (ill. Éléonore Zuber), Le Voyage, Tourbillon, 2009.
@@ -614,11 +630,11 @@
 Béatrice Fontanel, Mes zombis, Oskar, 2013.
 Béatrice Fontanel et Antoine Guilloppé, Les Petits Oiseaux, Naïve, 2013.
 Béatrice Fontanel et Céline Caneparo, Escargot rêve, Sarbacane, 2013.
-Béatrice Fontanel, Plus noire avant l’aube, Stock, 2014[5],[6].
+Béatrice Fontanel, Plus noire avant l’aube, Stock, 2014,.
 Hannah Arendt (bande dessinée), scénario de Béatrice Fontanel, dessins de Lindsay Grime, Naïve coll. « Grands destins de Femmes », 2015
 Béatrice Fontanel, De l’art dans mon assiette, Le Seuil, 2015
-Béatrice Fontanel, Le Petit Musée de Picasso, Gallimard Jeunesse, 2015Pépite du livre 2015[7], Catégorie livre d'art/ documentaire (Salon du livre et de la presse jeunesse de Montreuil)
-Béatrice Fontanel, Le Train d’Alger, Stock, 2016[8]
+Béatrice Fontanel, Le Petit Musée de Picasso, Gallimard Jeunesse, 2015Pépite du livre 2015, Catégorie livre d'art/ documentaire (Salon du livre et de la presse jeunesse de Montreuil)
+Béatrice Fontanel, Le Train d’Alger, Stock, 2016
 Béatrice Fontanel et Alexandra Huard, Massamba : le marchand de tours Eiffel, Gallimard Jeunesse, novembre 2018 (ISBN 9782075089555).
 Béatrice Fontanel et Junko Nakaruma, Le Petit Cirque d'Anouchka, L'École des Loisirs, coll. « Mouche » (ISBN 9782211237963).
 Béatrice Fontanel et Lucile Placin, Capricieuse, L'Étagère du bas, septembre 2019 (ISBN 9782490253159).
